--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value207.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value207.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.125236179094792</v>
+        <v>1.520731687545776</v>
       </c>
       <c r="B1">
-        <v>1.847928290377282</v>
+        <v>3.665806770324707</v>
       </c>
       <c r="C1">
-        <v>2.142825860441057</v>
+        <v>5.86833667755127</v>
       </c>
       <c r="D1">
-        <v>2.321490072225935</v>
+        <v>1.431361317634583</v>
       </c>
       <c r="E1">
-        <v>1.175122142343161</v>
+        <v>0.8366617560386658</v>
       </c>
     </row>
   </sheetData>
